--- a/Practical2/Practical2.2/Data/OpenCL Data.xlsx
+++ b/Practical2/Practical2.2/Data/OpenCL Data.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natashasoldin/Documents/Personal/University/Fourth Year/First Semester/EEE4120F/Practicals/Practical 02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D2CF75F-6638-184C-A28A-FC863C673886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EFAF13-88F0-654D-9488-2765B4290A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" xr2:uid="{825BB043-14F2-034E-B146-2D3F2DB16AF1}"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{825BB043-14F2-034E-B146-2D3F2DB16AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$28</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$3:$I$28</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Data Size</t>
   </si>
@@ -87,6 +83,9 @@
   <si>
     <t>Number of Treads</t>
   </si>
+  <si>
+    <t>Metrics</t>
+  </si>
 </sst>
 </file>
 
@@ -109,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -117,18 +116,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,6 +249,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution Time vs. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Matrix Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -199,6 +317,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Golden Standard</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -407,10 +528,13 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>OpenCL</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -421,11 +545,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -644,6 +768,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -706,6 +885,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -757,6 +996,32 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -838,6 +1103,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Speed-Up vs. Matrix Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1113,6 +1403,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1175,6 +1520,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speed-Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1276,6 +1676,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Data Tranfer Overhead vs. Matrix Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1551,6 +1976,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1613,6 +2093,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Data Transfer</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Overhead (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1714,6 +2254,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Number of Threads vs. Matrix Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1865,7 +2430,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$28</c:f>
+              <c:f>Sheet1!$H$3:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1989,6 +2554,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2051,6 +2671,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2137,14 +2812,1040 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>OpenCL Time vs. Matrix Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Data Transfer Overhead</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3.9999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5399999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9800000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.54E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.2100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.2199999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0480000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.134E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.248E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3630000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.536E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.73E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.892E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0200000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9859-934A-BA32-2E89176DC652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Computation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7599999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.84E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5899999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1299999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0950000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.544E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3159999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7690000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1589999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1130000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9789999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3850000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3220000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4729999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6019999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0697999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.45124E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5678999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7271999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8998000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0754999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2859999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9859-934A-BA32-2E89176DC652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Total Execution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.8999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.92E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4600000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7300000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0560000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2650000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7880000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.715E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2230000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6579999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7109999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6309999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.1390000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1430000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3949999999999988E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.065E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1831999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5760400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7041999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8807999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0728E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2647E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4879999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9859-934A-BA32-2E89176DC652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1415866383"/>
+        <c:axId val="1239098687"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1415866383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1239098687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1239098687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1415866383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2297,6 +3998,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3846,6 +5584,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4366,15 +6620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>824855</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>443855</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>55860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4402,15 +6656,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>24203</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:colOff>468703</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104821</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4437,16 +6691,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>487959</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>88473</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9408</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>198907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>824140</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>53519</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>456024</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>163953</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4473,16 +6727,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>92364</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>31173</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>18740</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>196825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>115455</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>72736</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428353</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>35924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4502,6 +6756,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13620</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>436217</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>138411</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4FBB81-8600-8860-F44D-7A6E629CB111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4807,10 +7097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04273C1F-B52F-3145-B995-710638F887B0}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="69" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4820,731 +7110,702 @@
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>1.8599999999999999E-4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <f>C3+D3</f>
         <v>1.8999999999999998E-4</v>
       </c>
-      <c r="G3" cm="1">
+      <c r="G3" s="8" cm="1">
         <f t="array" ref="G3:G28">B3:B28/E3:E28</f>
         <v>0.14210526315789473</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="8">
         <f>A3*A3</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>1.6699999999999999E-4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <f t="shared" ref="E4:E28" si="0">C4+D4</f>
         <v>1.7200000000000001E-4</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="8">
         <v>1.1395348837209303</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I28" si="1">A4*A4</f>
+      <c r="H4" s="8">
+        <f>A4*A4</f>
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>40</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>1.5319999999999999E-3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>2.2699999999999999E-4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>2.3499999999999999E-4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="8">
         <v>6.5191489361702128</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
+      <c r="H5" s="8">
+        <f>A5*A5</f>
         <v>1600</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>60</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>2.7699999999999999E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>2.7900000000000001E-4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>2.92E-4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <v>9.4863013698630141</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
+      <c r="H6" s="8">
+        <f>A6*A6</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>80</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>3.6849999999999999E-3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>3.7599999999999998E-4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>4.0099999999999999E-4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="8">
         <v>9.1895261845386536</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
+      <c r="H7" s="8">
+        <f>A7*A7</f>
         <v>6400</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>100</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>5.5160000000000001E-3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>4.84E-4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>5.4600000000000004E-4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="8">
         <v>10.102564102564102</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
+      <c r="H8" s="8">
+        <f>A8*A8</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>120</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>8.8269999999999998E-3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>1.1400000000000001E-4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>6.5899999999999997E-4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>7.7300000000000003E-4</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="8">
         <v>11.419146183699869</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
+      <c r="H9" s="8">
+        <f>A9*A9</f>
         <v>14400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>140</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>1.3705999999999999E-2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>1.4300000000000001E-4</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>9.1299999999999997E-4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>1.0560000000000001E-3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="8">
         <v>12.979166666666664</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
+      <c r="H10" s="8">
+        <f>A10*A10</f>
         <v>19600</v>
       </c>
-      <c r="S10">
-        <v>70</v>
-      </c>
-      <c r="T10">
-        <v>3.3739999999999998E-3</v>
-      </c>
-      <c r="U10">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="V10">
-        <v>3.2499999999999999E-4</v>
-      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>160</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>1.9231000000000002E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>1.0950000000000001E-3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>1.2650000000000001E-3</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="8">
         <v>15.202371541501977</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
+      <c r="H11" s="8">
+        <f>A11*A11</f>
         <v>25600</v>
       </c>
-      <c r="S11">
-        <v>71</v>
-      </c>
-      <c r="T11">
-        <v>3.156E-3</v>
-      </c>
-      <c r="U11">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="V11">
-        <v>3.4699999999999998E-4</v>
-      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>180</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>2.2317E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>2.4399999999999999E-4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>1.544E-3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>1.7880000000000001E-3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="8">
         <v>12.481543624161073</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
+      <c r="H12" s="8">
+        <f>A12*A12</f>
         <v>32400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>200</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>3.8943999999999999E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>2.3159999999999999E-3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>2.715E-3</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="8">
         <v>14.344014732965009</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
+      <c r="H13" s="8">
+        <f>A13*A13</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>220</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>5.1202999999999999E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>4.5399999999999998E-4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>2.7690000000000002E-3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>3.2230000000000002E-3</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="8">
         <v>15.886751473782189</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
+      <c r="H14" s="8">
+        <f>A14*A14</f>
         <v>48400</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>240</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>6.8857000000000002E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>4.9899999999999999E-4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>3.1589999999999999E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <f t="shared" si="0"/>
         <v>3.6579999999999998E-3</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="8">
         <v>18.823674138873702</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
+      <c r="H15" s="8">
+        <f>A15*A15</f>
         <v>57600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>260</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>8.6687E-2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>5.9800000000000001E-4</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>4.1130000000000003E-3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <f t="shared" si="0"/>
         <v>4.7109999999999999E-3</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="8">
         <v>18.400976438123543</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
+      <c r="H16" s="8">
+        <f>A16*A16</f>
         <v>67600</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>280</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>0.10427400000000001</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>6.5200000000000002E-4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>4.9789999999999999E-3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="8">
         <f t="shared" si="0"/>
         <v>5.6309999999999997E-3</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="8">
         <v>18.517847629195526</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
+      <c r="H17" s="8">
+        <f>A17*A17</f>
         <v>78400</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>300</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>0.13314198999999999</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>7.54E-4</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>6.3850000000000001E-3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="8">
         <f t="shared" si="0"/>
         <v>7.1390000000000004E-3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="8">
         <v>18.649949572769291</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
+      <c r="H18" s="8">
+        <f>A18*A18</f>
         <v>90000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>320</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>0.190387</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>8.2100000000000001E-4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>7.3220000000000004E-3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="8">
         <f t="shared" si="0"/>
         <v>8.1430000000000009E-3</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="8">
         <v>23.380449465798844</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
+      <c r="H19" s="8">
+        <f>A19*A19</f>
         <v>102400</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>340</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>0.19427</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>9.2199999999999997E-4</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>8.4729999999999996E-3</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
         <f t="shared" si="0"/>
         <v>9.3949999999999988E-3</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="8">
         <v>20.678020223523152</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
+      <c r="H20" s="8">
+        <f>A20*A20</f>
         <v>115600</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>360</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>0.222109</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>1.0480000000000001E-3</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>9.6019999999999994E-3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="8">
         <f t="shared" si="0"/>
         <v>1.065E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="8">
         <v>20.855305164319251</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
+      <c r="H21" s="8">
+        <f>A21*A21</f>
         <v>129600</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>380</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>0.27047500000000002</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>1.134E-3</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>1.0697999999999999E-2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="8">
         <f t="shared" si="0"/>
         <v>1.1831999999999999E-2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="8">
         <v>22.859617985125087</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
+      <c r="H22" s="8">
+        <f>A22*A22</f>
         <v>144400</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>400</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>0.33605400000000002</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>1.248E-3</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>1.45124E-2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="8">
         <f t="shared" si="0"/>
         <v>1.5760400000000001E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="8">
         <v>21.322682165427274</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
+      <c r="H23" s="8">
+        <f>A23*A23</f>
         <v>160000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>420</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>0.36698899000000001</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>1.3630000000000001E-3</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>1.5678999999999998E-2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="8">
         <f t="shared" si="0"/>
         <v>1.7041999999999998E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <v>21.534385048703207</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
+      <c r="H24" s="8">
+        <f>A24*A24</f>
         <v>176400</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
         <v>440</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>0.40999099999999999</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <v>1.536E-3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>1.7271999999999999E-2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
         <v>1.8807999999999998E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="8">
         <v>21.798755848575077</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
+      <c r="H25" s="8">
+        <f>A25*A25</f>
         <v>193600</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
         <v>460</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>0.49077499000000002</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <v>1.73E-3</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>1.8998000000000001E-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="8">
         <f t="shared" si="0"/>
         <v>2.0728E-2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="8">
         <v>23.676909976842918</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
+      <c r="H26" s="8">
+        <f>A26*A26</f>
         <v>211600</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>480</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>0.64441298999999996</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>1.892E-3</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>2.0754999999999999E-2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="8">
         <f t="shared" si="0"/>
         <v>2.2647E-2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="8">
         <v>28.454673466684326</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
+      <c r="H27" s="8">
+        <f>A27*A27</f>
         <v>230400</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
         <v>500</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>0.66327201999999996</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="9">
         <v>2.0200000000000001E-3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>2.2859999999999998E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="9">
         <f t="shared" si="0"/>
         <v>2.4879999999999999E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="9">
         <v>26.658843247588425</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
+      <c r="H28" s="9">
+        <f>A28*A28</f>
         <v>250000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>600</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Practical2/Practical2.2/Data/OpenCL Data.xlsx
+++ b/Practical2/Practical2.2/Data/OpenCL Data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natashasoldin/Documents/Personal/University/Fourth Year/First Semester/EEE4120F/Practicals/Practical 02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natashasoldin/Documents/Personal/University/Fourth Year/First Semester/EEE4120F/Practicals/Git Repo/EEE4120F Practicals/Practical2/Practical2.2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EFAF13-88F0-654D-9488-2765B4290A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270E3C3B-035D-C24A-A4BC-09E7F1FCA263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{825BB043-14F2-034E-B146-2D3F2DB16AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -201,22 +201,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7099,8 +7098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04273C1F-B52F-3145-B995-710638F887B0}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="69" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="69" workbookViewId="0">
+      <selection activeCell="S58" sqref="S57:S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7114,689 +7113,689 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>1.8599999999999999E-4</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <f>C3+D3</f>
         <v>1.8999999999999998E-4</v>
       </c>
-      <c r="G3" s="8" cm="1">
+      <c r="G3" s="5" cm="1">
         <f t="array" ref="G3:G28">B3:B28/E3:E28</f>
         <v>0.14210526315789473</v>
       </c>
-      <c r="H3" s="8">
-        <f>A3*A3</f>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H28" si="0">A3*A3</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>20</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>1.6699999999999999E-4</v>
       </c>
-      <c r="E4" s="8">
-        <f t="shared" ref="E4:E28" si="0">C4+D4</f>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E28" si="1">C4+D4</f>
         <v>1.7200000000000001E-4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>1.1395348837209303</v>
       </c>
-      <c r="H4" s="8">
-        <f>A4*A4</f>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>40</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>1.5319999999999999E-3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>2.2699999999999999E-4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>2.3499999999999999E-4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.5191489361702128</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
-        <v>2.3499999999999999E-4</v>
-      </c>
-      <c r="G5" s="8">
-        <v>6.5191489361702128</v>
-      </c>
-      <c r="H5" s="8">
-        <f>A5*A5</f>
         <v>1600</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>60</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>2.7699999999999999E-3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>2.7900000000000001E-4</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>2.92E-4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>9.4863013698630141</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>2.92E-4</v>
-      </c>
-      <c r="G6" s="8">
-        <v>9.4863013698630141</v>
-      </c>
-      <c r="H6" s="8">
-        <f>A6*A6</f>
         <v>3600</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>80</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>3.6849999999999999E-3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>3.7599999999999998E-4</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>4.0099999999999999E-4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9.1895261845386536</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>4.0099999999999999E-4</v>
-      </c>
-      <c r="G7" s="8">
-        <v>9.1895261845386536</v>
-      </c>
-      <c r="H7" s="8">
-        <f>A7*A7</f>
         <v>6400</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>100</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>5.5160000000000001E-3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>4.84E-4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>5.4600000000000004E-4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10.102564102564102</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>5.4600000000000004E-4</v>
-      </c>
-      <c r="G8" s="8">
-        <v>10.102564102564102</v>
-      </c>
-      <c r="H8" s="8">
-        <f>A8*A8</f>
         <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>120</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>8.8269999999999998E-3</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>1.1400000000000001E-4</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>6.5899999999999997E-4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>7.7300000000000003E-4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>11.419146183699869</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>7.7300000000000003E-4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>11.419146183699869</v>
-      </c>
-      <c r="H9" s="8">
-        <f>A9*A9</f>
         <v>14400</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>140</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>1.3705999999999999E-2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>1.4300000000000001E-4</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>9.1299999999999997E-4</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0560000000000001E-3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>12.979166666666664</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>1.0560000000000001E-3</v>
-      </c>
-      <c r="G10" s="8">
-        <v>12.979166666666664</v>
-      </c>
-      <c r="H10" s="8">
-        <f>A10*A10</f>
         <v>19600</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>160</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>1.9231000000000002E-2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>1.0950000000000001E-3</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2650000000000001E-3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>15.202371541501977</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>1.2650000000000001E-3</v>
-      </c>
-      <c r="G11" s="8">
-        <v>15.202371541501977</v>
-      </c>
-      <c r="H11" s="8">
-        <f>A11*A11</f>
         <v>25600</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>180</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>2.2317E-2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>2.4399999999999999E-4</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>1.544E-3</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7880000000000001E-3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>12.481543624161073</v>
+      </c>
+      <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>1.7880000000000001E-3</v>
-      </c>
-      <c r="G12" s="8">
-        <v>12.481543624161073</v>
-      </c>
-      <c r="H12" s="8">
-        <f>A12*A12</f>
         <v>32400</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>200</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>3.8943999999999999E-2</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>2.3159999999999999E-3</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>2.715E-3</v>
+      </c>
+      <c r="G13" s="5">
+        <v>14.344014732965009</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>2.715E-3</v>
-      </c>
-      <c r="G13" s="8">
-        <v>14.344014732965009</v>
-      </c>
-      <c r="H13" s="8">
-        <f>A13*A13</f>
         <v>40000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>220</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>5.1202999999999999E-2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>4.5399999999999998E-4</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>2.7690000000000002E-3</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>3.2230000000000002E-3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>15.886751473782189</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="0"/>
-        <v>3.2230000000000002E-3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>15.886751473782189</v>
-      </c>
-      <c r="H14" s="8">
-        <f>A14*A14</f>
         <v>48400</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>240</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>6.8857000000000002E-2</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>4.9899999999999999E-4</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>3.1589999999999999E-3</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>3.6579999999999998E-3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>18.823674138873702</v>
+      </c>
+      <c r="H15" s="5">
         <f t="shared" si="0"/>
-        <v>3.6579999999999998E-3</v>
-      </c>
-      <c r="G15" s="8">
-        <v>18.823674138873702</v>
-      </c>
-      <c r="H15" s="8">
-        <f>A15*A15</f>
         <v>57600</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>260</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>8.6687E-2</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>5.9800000000000001E-4</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16">
         <v>4.1130000000000003E-3</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>4.7109999999999999E-3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>18.400976438123543</v>
+      </c>
+      <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>4.7109999999999999E-3</v>
-      </c>
-      <c r="G16" s="8">
-        <v>18.400976438123543</v>
-      </c>
-      <c r="H16" s="8">
-        <f>A16*A16</f>
         <v>67600</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="5">
         <v>280</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>0.10427400000000001</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>6.5200000000000002E-4</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17">
         <v>4.9789999999999999E-3</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>5.6309999999999997E-3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>18.517847629195526</v>
+      </c>
+      <c r="H17" s="5">
         <f t="shared" si="0"/>
-        <v>5.6309999999999997E-3</v>
-      </c>
-      <c r="G17" s="8">
-        <v>18.517847629195526</v>
-      </c>
-      <c r="H17" s="8">
-        <f>A17*A17</f>
         <v>78400</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>300</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>0.13314198999999999</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <v>7.54E-4</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18">
         <v>6.3850000000000001E-3</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>7.1390000000000004E-3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>18.649949572769291</v>
+      </c>
+      <c r="H18" s="5">
         <f t="shared" si="0"/>
-        <v>7.1390000000000004E-3</v>
-      </c>
-      <c r="G18" s="8">
-        <v>18.649949572769291</v>
-      </c>
-      <c r="H18" s="8">
-        <f>A18*A18</f>
         <v>90000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <v>320</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>0.190387</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>8.2100000000000001E-4</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19">
         <v>7.3220000000000004E-3</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>8.1430000000000009E-3</v>
+      </c>
+      <c r="G19" s="5">
+        <v>23.380449465798844</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>8.1430000000000009E-3</v>
-      </c>
-      <c r="G19" s="8">
-        <v>23.380449465798844</v>
-      </c>
-      <c r="H19" s="8">
-        <f>A19*A19</f>
         <v>102400</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <v>340</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>0.19427</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>9.2199999999999997E-4</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20">
         <v>8.4729999999999996E-3</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>9.3949999999999988E-3</v>
+      </c>
+      <c r="G20" s="5">
+        <v>20.678020223523152</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="0"/>
-        <v>9.3949999999999988E-3</v>
-      </c>
-      <c r="G20" s="8">
-        <v>20.678020223523152</v>
-      </c>
-      <c r="H20" s="8">
-        <f>A20*A20</f>
         <v>115600</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <v>360</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>0.222109</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>1.0480000000000001E-3</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>9.6019999999999994E-3</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>1.065E-2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>20.855305164319251</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="0"/>
-        <v>1.065E-2</v>
-      </c>
-      <c r="G21" s="8">
-        <v>20.855305164319251</v>
-      </c>
-      <c r="H21" s="8">
-        <f>A21*A21</f>
         <v>129600</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="5">
         <v>380</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>0.27047500000000002</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <v>1.134E-3</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22">
         <v>1.0697999999999999E-2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1831999999999999E-2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>22.859617985125087</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="0"/>
-        <v>1.1831999999999999E-2</v>
-      </c>
-      <c r="G22" s="8">
-        <v>22.859617985125087</v>
-      </c>
-      <c r="H22" s="8">
-        <f>A22*A22</f>
         <v>144400</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="A23" s="5">
         <v>400</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>0.33605400000000002</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <v>1.248E-3</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>1.45124E-2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5760400000000001E-2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>21.322682165427274</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="0"/>
-        <v>1.5760400000000001E-2</v>
-      </c>
-      <c r="G23" s="8">
-        <v>21.322682165427274</v>
-      </c>
-      <c r="H23" s="8">
-        <f>A23*A23</f>
         <v>160000</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="5">
         <v>420</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>0.36698899000000001</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <v>1.3630000000000001E-3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24">
         <v>1.5678999999999998E-2</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7041999999999998E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>21.534385048703207</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="0"/>
-        <v>1.7041999999999998E-2</v>
-      </c>
-      <c r="G24" s="8">
-        <v>21.534385048703207</v>
-      </c>
-      <c r="H24" s="8">
-        <f>A24*A24</f>
         <v>176400</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <v>440</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>0.40999099999999999</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <v>1.536E-3</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>1.7271999999999999E-2</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8807999999999998E-2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>21.798755848575077</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="0"/>
-        <v>1.8807999999999998E-2</v>
-      </c>
-      <c r="G25" s="8">
-        <v>21.798755848575077</v>
-      </c>
-      <c r="H25" s="8">
-        <f>A25*A25</f>
         <v>193600</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+      <c r="A26" s="5">
         <v>460</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>0.49077499000000002</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <v>1.73E-3</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>1.8998000000000001E-2</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0728E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <v>23.676909976842918</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="0"/>
-        <v>2.0728E-2</v>
-      </c>
-      <c r="G26" s="8">
-        <v>23.676909976842918</v>
-      </c>
-      <c r="H26" s="8">
-        <f>A26*A26</f>
         <v>211600</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="A27" s="5">
         <v>480</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>0.64441298999999996</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <v>1.892E-3</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27">
         <v>2.0754999999999999E-2</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2647E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>28.454673466684326</v>
+      </c>
+      <c r="H27" s="5">
         <f t="shared" si="0"/>
-        <v>2.2647E-2</v>
-      </c>
-      <c r="G27" s="8">
-        <v>28.454673466684326</v>
-      </c>
-      <c r="H27" s="8">
-        <f>A27*A27</f>
         <v>230400</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>500</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="3">
         <v>0.66327201999999996</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>2.0200000000000001E-3</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <v>2.2859999999999998E-2</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4879999999999999E-2</v>
+      </c>
+      <c r="G28" s="6">
+        <v>26.658843247588425</v>
+      </c>
+      <c r="H28" s="6">
         <f t="shared" si="0"/>
-        <v>2.4879999999999999E-2</v>
-      </c>
-      <c r="G28" s="9">
-        <v>26.658843247588425</v>
-      </c>
-      <c r="H28" s="9">
-        <f>A28*A28</f>
         <v>250000</v>
       </c>
     </row>
